--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adm-Ramp3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adm-Ramp3.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.727457666666666</v>
+        <v>15.89577633333333</v>
       </c>
       <c r="H2">
-        <v>23.182373</v>
+        <v>47.687329</v>
       </c>
       <c r="I2">
-        <v>0.1630271452636819</v>
+        <v>0.286059172443548</v>
       </c>
       <c r="J2">
-        <v>0.1630271452636819</v>
+        <v>0.2860591724435479</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2220133333333333</v>
+        <v>1.477432</v>
       </c>
       <c r="N2">
-        <v>0.66604</v>
+        <v>4.432296</v>
       </c>
       <c r="O2">
-        <v>0.4930050777953782</v>
+        <v>0.866150398379125</v>
       </c>
       <c r="P2">
-        <v>0.4930050777953782</v>
+        <v>0.866150398379125</v>
       </c>
       <c r="Q2">
-        <v>1.715598634768889</v>
+        <v>23.48492861970933</v>
       </c>
       <c r="R2">
-        <v>15.44038771292</v>
+        <v>211.364357577384</v>
       </c>
       <c r="S2">
-        <v>0.08037321043347992</v>
+        <v>0.2477702661719819</v>
       </c>
       <c r="T2">
-        <v>0.08037321043347993</v>
+        <v>0.2477702661719819</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.727457666666666</v>
+        <v>15.89577633333333</v>
       </c>
       <c r="H3">
-        <v>23.182373</v>
+        <v>47.687329</v>
       </c>
       <c r="I3">
-        <v>0.1630271452636819</v>
+        <v>0.286059172443548</v>
       </c>
       <c r="J3">
-        <v>0.1630271452636819</v>
+        <v>0.2860591724435479</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.68494</v>
       </c>
       <c r="O3">
-        <v>0.5069949222046218</v>
+        <v>0.133849601620875</v>
       </c>
       <c r="P3">
-        <v>0.5069949222046218</v>
+        <v>0.133849601620875</v>
       </c>
       <c r="Q3">
-        <v>1.764281618068889</v>
+        <v>3.629217680584444</v>
       </c>
       <c r="R3">
-        <v>15.87853456262</v>
+        <v>32.66295912526</v>
       </c>
       <c r="S3">
-        <v>0.082653934830202</v>
+        <v>0.03828890627156609</v>
       </c>
       <c r="T3">
-        <v>0.082653934830202</v>
+        <v>0.03828890627156608</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>112.283398</v>
       </c>
       <c r="I4">
-        <v>0.7896189849264272</v>
+        <v>0.6735478078679881</v>
       </c>
       <c r="J4">
-        <v>0.7896189849264271</v>
+        <v>0.673547807867988</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2220133333333333</v>
+        <v>1.477432</v>
       </c>
       <c r="N4">
-        <v>0.66604</v>
+        <v>4.432296</v>
       </c>
       <c r="O4">
-        <v>0.4930050777953782</v>
+        <v>0.866150398379125</v>
       </c>
       <c r="P4">
-        <v>0.4930050777953782</v>
+        <v>0.866150398379125</v>
       </c>
       <c r="Q4">
-        <v>8.309470489324443</v>
+        <v>55.29702842464533</v>
       </c>
       <c r="R4">
-        <v>74.78523440391999</v>
+        <v>497.673255821808</v>
       </c>
       <c r="S4">
-        <v>0.3892861690923608</v>
+        <v>0.5833937021122442</v>
       </c>
       <c r="T4">
-        <v>0.3892861690923608</v>
+        <v>0.5833937021122441</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>112.283398</v>
       </c>
       <c r="I5">
-        <v>0.7896189849264272</v>
+        <v>0.6735478078679881</v>
       </c>
       <c r="J5">
-        <v>0.7896189849264271</v>
+        <v>0.673547807867988</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,22 +744,22 @@
         <v>0.68494</v>
       </c>
       <c r="O5">
-        <v>0.5069949222046218</v>
+        <v>0.133849601620875</v>
       </c>
       <c r="P5">
-        <v>0.5069949222046218</v>
+        <v>0.133849601620875</v>
       </c>
       <c r="Q5">
         <v>8.545265625124445</v>
       </c>
       <c r="R5">
-        <v>76.90739062611999</v>
+        <v>76.90739062612001</v>
       </c>
       <c r="S5">
-        <v>0.4003328158340664</v>
+        <v>0.09015410575574385</v>
       </c>
       <c r="T5">
-        <v>0.4003328158340664</v>
+        <v>0.09015410575574384</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,40 +788,40 @@
         <v>6.733695</v>
       </c>
       <c r="I6">
-        <v>0.04735386980989085</v>
+        <v>0.04039301968846393</v>
       </c>
       <c r="J6">
-        <v>0.04735386980989085</v>
+        <v>0.04039301968846393</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2220133333333333</v>
+        <v>1.477432</v>
       </c>
       <c r="N6">
-        <v>0.66604</v>
+        <v>4.432296</v>
       </c>
       <c r="O6">
-        <v>0.4930050777953782</v>
+        <v>0.866150398379125</v>
       </c>
       <c r="P6">
-        <v>0.4930050777953782</v>
+        <v>0.866150398379125</v>
       </c>
       <c r="Q6">
-        <v>0.4983233575333333</v>
+        <v>3.316192157080001</v>
       </c>
       <c r="R6">
-        <v>4.4849102178</v>
+        <v>29.84572941372</v>
       </c>
       <c r="S6">
-        <v>0.02334569826953745</v>
+        <v>0.03498643009489887</v>
       </c>
       <c r="T6">
-        <v>0.02334569826953745</v>
+        <v>0.03498643009489887</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>6.733695</v>
       </c>
       <c r="I7">
-        <v>0.04735386980989085</v>
+        <v>0.04039301968846393</v>
       </c>
       <c r="J7">
-        <v>0.04735386980989085</v>
+        <v>0.04039301968846393</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.68494</v>
       </c>
       <c r="O7">
-        <v>0.5069949222046218</v>
+        <v>0.133849601620875</v>
       </c>
       <c r="P7">
-        <v>0.5069949222046218</v>
+        <v>0.133849601620875</v>
       </c>
       <c r="Q7">
         <v>0.5124641170333334</v>
@@ -880,10 +880,10 @@
         <v>4.6121770533</v>
       </c>
       <c r="S7">
-        <v>0.0240081715403534</v>
+        <v>0.005406589593565058</v>
       </c>
       <c r="T7">
-        <v>0.0240081715403534</v>
+        <v>0.005406589593565057</v>
       </c>
     </row>
   </sheetData>
